--- a/public/downloadfiles/camp_upload_template.xlsx
+++ b/public/downloadfiles/camp_upload_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27217"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/87logic23/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ict_manager/Sammie/Sammie/Coding/Laravel/aposacamp/public/downloadfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5154F009-A6D4-476F-820F-F01144621AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3567BEF-40BB-E448-AD11-6300E86AAAC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="89">
   <si>
     <t>surname</t>
   </si>
@@ -282,6 +282,39 @@
   </si>
   <si>
     <t>Volta Region</t>
+  </si>
+  <si>
+    <t>apngrouping</t>
+  </si>
+  <si>
+    <t>Religion (Ministry)</t>
+  </si>
+  <si>
+    <t>Education (Academia)</t>
+  </si>
+  <si>
+    <t>Media and Entertainment</t>
+  </si>
+  <si>
+    <t>Health and Medicine</t>
+  </si>
+  <si>
+    <t>Security Services</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Law and Politics</t>
+  </si>
+  <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
+    <t>Business and Commerce</t>
+  </si>
+  <si>
+    <t>Entrepreneurship</t>
   </si>
 </sst>
 </file>
@@ -291,7 +324,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -637,33 +670,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:T1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
     <col min="9" max="9" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" customWidth="1"/>
-    <col min="12" max="12" width="23.7109375" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5" customWidth="1"/>
+    <col min="12" max="12" width="23.6640625" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" customWidth="1"/>
+    <col min="18" max="18" width="16.5" customWidth="1"/>
+    <col min="19" max="19" width="17.5" customWidth="1"/>
+    <col min="20" max="20" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1">
+    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -720,6 +753,9 @@
       </c>
       <c r="S1" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -733,7 +769,7 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Sheet2!$G$2:$G$3</xm:f>
@@ -782,6 +818,12 @@
           </x14:formula1>
           <xm:sqref>R1:R1048576</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{87AB9496-27EC-EA48-B83A-F2A847FF6B5E}">
+          <x14:formula1>
+            <xm:f>Sheet2!$P$2:$P$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>T1:T1048576</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -790,28 +832,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -857,8 +900,11 @@
       <c r="O1" t="s">
         <v>29</v>
       </c>
+      <c r="P1" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" ht="18">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -904,8 +950,11 @@
       <c r="O2" t="s">
         <v>42</v>
       </c>
+      <c r="P2" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -945,8 +994,11 @@
       <c r="M3" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="P3" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" ht="18">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -974,8 +1026,11 @@
       <c r="M4" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="P4" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -1003,8 +1058,11 @@
       <c r="M5" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="P5" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>63</v>
       </c>
@@ -1026,8 +1084,11 @@
       <c r="L6" t="s">
         <v>67</v>
       </c>
+      <c r="P6" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -1040,8 +1101,11 @@
       <c r="J7" t="s">
         <v>70</v>
       </c>
+      <c r="P7" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -1051,8 +1115,11 @@
       <c r="F8" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="P8" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" ht="18">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>73</v>
       </c>
@@ -1062,15 +1129,24 @@
       <c r="F9" s="7" t="s">
         <v>75</v>
       </c>
+      <c r="P9" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>76</v>
       </c>
+      <c r="P10" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>77</v>
+      </c>
+      <c r="P11" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/public/downloadfiles/camp_upload_template.xlsx
+++ b/public/downloadfiles/camp_upload_template.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11027"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ict_manager/Sammie/Sammie/Coding/Laravel/aposacamp/public/downloadfiles/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3567BEF-40BB-E448-AD11-6300E86AAAC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27400" windowHeight="12220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,17 +15,14 @@
     <definedName name="belowSix">Sheet2!$O$2:$O$2</definedName>
     <definedName name="camperTypes">Sheet2!$H$2:$H$6</definedName>
     <definedName name="counselingAreas">Sheet2!$J$2:$J$7</definedName>
-    <definedName name="feeTypes">Sheet2!$F$2:$F$9</definedName>
+    <definedName name="feeTypes">Sheet2!$F$2:$F$12</definedName>
     <definedName name="regularStudent">Sheet2!$M$2:$M$5</definedName>
     <definedName name="regularWorker">Sheet2!$L$2:$L$6</definedName>
     <definedName name="seniorCamper">Sheet2!$K$2:$K$5</definedName>
     <definedName name="seniorCampers">Sheet2!$K$2:$K$5</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -48,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="93">
   <si>
     <t>surname</t>
   </si>
@@ -107,6 +98,9 @@
     <t>counseling_area</t>
   </si>
   <si>
+    <t>apngrouping</t>
+  </si>
+  <si>
     <t>Regions</t>
   </si>
   <si>
@@ -179,6 +173,9 @@
     <t>Children (6yrs &amp; above) - 200</t>
   </si>
   <si>
+    <t>Religion (Ministry)</t>
+  </si>
+  <si>
     <t>Ashanti Region</t>
   </si>
   <si>
@@ -206,6 +203,9 @@
     <t>Special Accomodation (1 in a room) - 600</t>
   </si>
   <si>
+    <t>Education (Academia)</t>
+  </si>
+  <si>
     <t>Brong Ahafo</t>
   </si>
   <si>
@@ -221,6 +221,9 @@
     <t>Senior Camper - Non fee paying</t>
   </si>
   <si>
+    <t>Media and Entertainment</t>
+  </si>
+  <si>
     <t>Upper East</t>
   </si>
   <si>
@@ -230,6 +233,9 @@
     <t>Talensi</t>
   </si>
   <si>
+    <t>Special Accomodation (1 in a room with AC) - 1300</t>
+  </si>
+  <si>
     <t>Career</t>
   </si>
   <si>
@@ -239,6 +245,9 @@
     <t>Non residential - 250</t>
   </si>
   <si>
+    <t>Health and Medicine</t>
+  </si>
+  <si>
     <t>Upper West</t>
   </si>
   <si>
@@ -248,27 +257,45 @@
     <t>Ewe</t>
   </si>
   <si>
+    <t>Special Accomodation (1 in a room without AC) - 900</t>
+  </si>
+  <si>
     <t>Finance</t>
   </si>
   <si>
     <t>Regular (worker) - Senior Camper - 400</t>
   </si>
   <si>
+    <t>Security Services</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nothern </t>
   </si>
   <si>
     <t>Deacon</t>
   </si>
   <si>
+    <t>Special Accomodation (2 in a room with AC) - 800</t>
+  </si>
+  <si>
     <t>Spirituality</t>
   </si>
   <si>
+    <t>IT</t>
+  </si>
+  <si>
     <t>Eastern Region</t>
   </si>
   <si>
     <t>Deaconess</t>
   </si>
   <si>
+    <t>Special Accomodation (2 in a room without AC) - 600</t>
+  </si>
+  <si>
+    <t>Law and Politics</t>
+  </si>
+  <si>
     <t>Western Region</t>
   </si>
   <si>
@@ -278,40 +305,16 @@
     <t>Senior Camper - Non fee paying - 0</t>
   </si>
   <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
     <t>Central Region</t>
   </si>
   <si>
+    <t>Business and Commerce</t>
+  </si>
+  <si>
     <t>Volta Region</t>
-  </si>
-  <si>
-    <t>apngrouping</t>
-  </si>
-  <si>
-    <t>Religion (Ministry)</t>
-  </si>
-  <si>
-    <t>Education (Academia)</t>
-  </si>
-  <si>
-    <t>Media and Entertainment</t>
-  </si>
-  <si>
-    <t>Health and Medicine</t>
-  </si>
-  <si>
-    <t>Security Services</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>Law and Politics</t>
-  </si>
-  <si>
-    <t>Agriculture</t>
-  </si>
-  <si>
-    <t>Business and Commerce</t>
   </si>
   <si>
     <t>Entrepreneurship</t>
@@ -320,41 +323,194 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF636B6F"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Raleway"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF444444"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,8 +523,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -376,32 +718,318 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -450,7 +1078,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -485,7 +1113,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -659,219 +1287,184 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:T1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.8359375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.3359375" customWidth="1"/>
+    <col min="6" max="6" width="22.3359375" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
     <col min="8" max="8" width="17.5" customWidth="1"/>
-    <col min="9" max="9" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="6" customWidth="1"/>
+    <col min="10" max="10" width="23.5" customWidth="1"/>
     <col min="11" max="11" width="15.5" customWidth="1"/>
     <col min="12" max="12" width="23.6640625" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="37.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.33203125" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" customWidth="1"/>
+    <col min="14" max="14" width="20.1640625" customWidth="1"/>
+    <col min="15" max="15" width="37.8359375" customWidth="1"/>
+    <col min="16" max="16" width="14.3359375" customWidth="1"/>
+    <col min="17" max="17" width="13.3359375" customWidth="1"/>
     <col min="18" max="18" width="16.5" customWidth="1"/>
     <col min="19" max="19" width="17.5" customWidth="1"/>
-    <col min="20" max="20" width="17.33203125" customWidth="1"/>
+    <col min="20" max="20" width="17.3359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="4" customFormat="1" spans="1:20">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
-        <v>78</v>
+      <c r="T1" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <dataConsolidate/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
+  <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
+      <formula1>Sheet2!$B$2:$B$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F$1:F$1048576">
+      <formula1>Sheet2!$G$2:$G$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K$1:K$1048576">
+      <formula1>Sheet2!$C$2:$C$9</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N$1:N$1048576">
       <formula1>camperTypes</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O$1:O$1048576">
+      <formula1>Sheet2!$F$2:$F$11</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P$1:P$1048576">
+      <formula1>Sheet2!$D$2:$D$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q$1:Q$1048576">
+      <formula1>Sheet2!$E$2:$E$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R$1:R$1048576">
+      <formula1>Sheet2!$I$2:$I$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S$1:S$1048576">
+      <formula1>Sheet2!$J$2:$J$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T$1:T$1048576">
+      <formula1>Sheet2!$P$2:$P$11</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
-          <x14:formula1>
-            <xm:f>Sheet2!$G$2:$G$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>F1:F1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
-          <x14:formula1>
-            <xm:f>Sheet2!$E$2:$E$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>Q1:Q1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>C1:C1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
-          <x14:formula1>
-            <xm:f>Sheet2!$C$2:$C$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>K1:K1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
-          <x14:formula1>
-            <xm:f>Sheet2!$D$2:$D$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>P1:P1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
-          <x14:formula1>
-            <xm:f>Sheet2!$F$2:$F$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>O1:O1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8DE28E87-9A2A-4D31-87F5-70AD77DA1E4C}">
-          <x14:formula1>
-            <xm:f>Sheet2!$J$2:$J$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>S1:S1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F65AC1CB-6BEF-40AE-B721-36CED879FD30}">
-          <x14:formula1>
-            <xm:f>Sheet2!$I$2:$I$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>R1:R1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{87AB9496-27EC-EA48-B83A-F2A847FF6B5E}">
-          <x14:formula1>
-            <xm:f>Sheet2!$P$2:$P$11</xm:f>
-          </x14:formula1>
-          <xm:sqref>T1:T1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="37.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13.3359375" customWidth="1"/>
+    <col min="6" max="6" width="37.8359375" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="24.3359375" customWidth="1"/>
+    <col min="9" max="9" width="13.8359375" customWidth="1"/>
+    <col min="10" max="10" width="20.5" customWidth="1"/>
+    <col min="11" max="13" width="37.8359375" customWidth="1"/>
+    <col min="14" max="14" width="35.8359375" customWidth="1"/>
+    <col min="15" max="15" width="27.1640625" customWidth="1"/>
     <col min="16" max="16" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -885,273 +1478,283 @@
       <c r="J1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>25</v>
+      <c r="K1" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="L1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
         <v>26</v>
       </c>
-      <c r="M1" t="s">
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" t="s">
         <v>27</v>
       </c>
-      <c r="N1" t="s">
+      <c r="I3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
         <v>28</v>
       </c>
-      <c r="O1" t="s">
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" t="s">
         <v>29</v>
       </c>
-      <c r="P1" t="s">
+      <c r="J5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s">
         <v>78</v>
       </c>
+      <c r="J7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P7" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="4" t="s">
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P2" t="s">
-        <v>79</v>
+      <c r="P11" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="P3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="P4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K5" t="s">
-        <v>61</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="P5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" t="s">
-        <v>66</v>
-      </c>
-      <c r="L6" t="s">
-        <v>67</v>
-      </c>
-      <c r="P6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="P9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>76</v>
-      </c>
-      <c r="P10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>77</v>
-      </c>
-      <c r="P11" t="s">
-        <v>88</v>
-      </c>
+    <row r="12" spans="6:6">
+      <c r="F12" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection sheet="1" objects="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>